--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_14.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>82.62549675400459</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>100.0376190809312</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>17.55829564281241</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1151,10 +1151,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.687115281373639</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>130.3832897527008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>17.55829564281241</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>212.285385643442</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1503,13 +1503,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.50776251200623</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>28.14326276152196</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1737,13 +1737,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>16.16726461546774</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11.69581151860317</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>142.8009741436498</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="25">
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>80.33470701581992</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.79900896488246</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>98.22847700514936</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,10 +2694,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,31 +2834,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>76.79360427493769</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>35.25538270069651</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>102.3382270926888</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3071,22 +3071,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.014288877659</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>39.45698165390564</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>9.411629820609928</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3272,22 +3272,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3354,13 +3354,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>69.36224119091113</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>179.8938899413837</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>18.55597406227207</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>57.81343218737562</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>142.8673256144868</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>146.1932996118733</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>50.25707871510754</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>130.8309467350024</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>148.6429936570148</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4349,28 +4349,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.0119685275972</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>158.0119685275972</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W3" t="n">
-        <v>158.0119685275972</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X3" t="n">
-        <v>158.0119685275972</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.0119685275972</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4711,13 +4711,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
         <v>720.6083788665362</v>
@@ -4799,7 +4799,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4841,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.3568628311405</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C9" t="n">
-        <v>657.9038335500135</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>508.9694238887622</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,16 +4890,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y9" t="n">
-        <v>832.3568628311405</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="10">
@@ -4942,19 +4942,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>125.0774898247174</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543127</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5288,40 +5288,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.057155510636</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.057155510636</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.057155510636</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U14" t="n">
-        <v>964.057155510636</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V14" t="n">
-        <v>964.057155510636</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W14" t="n">
-        <v>964.057155510636</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X14" t="n">
-        <v>749.6274730425127</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984127</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>433.7223438482202</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C15" t="n">
-        <v>259.2693145670932</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D15" t="n">
-        <v>110.334904905842</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E15" t="n">
-        <v>110.334904905842</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="F15" t="n">
-        <v>110.334904905842</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,46 +5361,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972852</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635217</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141906</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>689.4702815141906</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>689.4702815141906</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>689.4702815141906</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W15" t="n">
-        <v>689.4702815141906</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X15" t="n">
-        <v>689.4702815141906</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y15" t="n">
-        <v>481.7099827492366</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35.61171342886701</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5598,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5631,13 +5631,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>619.4388494194218</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>411.587349213889</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.827050448935</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5732,16 +5732,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,10 +5777,10 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
         <v>262.7299197543128</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C21" t="n">
-        <v>689.4702815141908</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D21" t="n">
-        <v>540.5358718529395</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E21" t="n">
-        <v>381.298416847484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>234.763858874369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>467.067986854209</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D24" t="n">
-        <v>163.5245513361216</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="25">
@@ -6166,13 +6166,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.4273118130611</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C26" t="n">
-        <v>100.4273118130611</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D26" t="n">
-        <v>100.4273118130611</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6236,40 +6236,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953333</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953333</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012611</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>343.8760884571611</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V26" t="n">
-        <v>343.8760884571611</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W26" t="n">
-        <v>100.4273118130611</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X26" t="n">
-        <v>100.4273118130611</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y26" t="n">
-        <v>100.4273118130611</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363992</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>542.8095319084027</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.8095319084027</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972852</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.057155510636</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.057155510636</v>
+        <v>864.836471667051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470251</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152824</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711824</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564955</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564955</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.23626279480618</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>72.23626279480618</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>72.23626279480618</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6479,34 +6479,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271062</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271062</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271062</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271062</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271062</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271062</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>559.1338160830062</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389062</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>420.2378793000028</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C30" t="n">
-        <v>245.7848500188758</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>96.85044035762454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.8095319084027</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613049</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200709</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200709</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200709</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="W30" t="n">
-        <v>588.4532163200709</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X30" t="n">
-        <v>588.4532163200709</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y30" t="n">
-        <v>588.4532163200709</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.6530896684842</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>122.6530896684842</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6701,49 +6701,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O32" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P32" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271062</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>122.6530896684842</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>122.6530896684842</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>122.6530896684842</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>122.6530896684842</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.6530896684842</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.3994074699755</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C33" t="n">
-        <v>306.9463781888485</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950733</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.0191193839557</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>649.6147444900434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>649.6147444900434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>649.6147444900434</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>649.6147444900434</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>649.6147444900434</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y33" t="n">
-        <v>649.6147444900434</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>749.6274730425127</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6947,40 +6947,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P35" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424089</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424089</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424089</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424089</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>341.4439740098271</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950733</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200709</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564599</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280782</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203004</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757367</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.608378866536</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>477.159602222436</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>233.710825578336</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212.4775805350489</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C39" t="n">
-        <v>38.02455125392189</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.8095319084027</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.8095319084027</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613049</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200709</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200709</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200709</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>588.4532163200709</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>588.4532163200709</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y39" t="n">
-        <v>380.6929175551169</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.057155510636</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="U42" t="n">
-        <v>964.057155510636</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V42" t="n">
-        <v>964.057155510636</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W42" t="n">
-        <v>964.057155510636</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X42" t="n">
-        <v>964.057155510636</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y42" t="n">
-        <v>964.057155510636</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="43">
@@ -7588,10 +7588,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
         <v>19.28114311021272</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363992</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950733</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>712.0191193839557</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>831.9046840611386</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>629.7180894199046</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="U45" t="n">
-        <v>401.4944711562937</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="V45" t="n">
-        <v>401.4944711562937</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W45" t="n">
-        <v>401.4944711562937</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X45" t="n">
-        <v>401.4944711562937</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y45" t="n">
-        <v>193.7341723913397</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="46">
@@ -7831,13 +7831,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,10 +8538,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.0408247018198</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,19 +9246,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515267</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515267</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221034</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236954</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133071</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>225.414031377446</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>90.08300223431115</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>132.7629680684941</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>127.8627523801188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23039,10 +23039,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,7 +23081,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>163.8460683684937</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23106,7 +23106,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23115,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,7 +23148,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>75.29940602460357</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23182,7 +23182,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>131.0571773754</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>10.81046392068936</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23391,13 +23391,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23510,13 +23510,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>119.0254211378611</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,10 +23586,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>109.2002544016887</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23625,13 +23625,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>127.8627523801188</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23701,7 +23701,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23735,7 +23735,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>121.8499558845326</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,25 +23774,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,31 +23808,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>156.541234372848</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23871,13 +23871,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>125.6477056446075</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>288.9757030627164</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24291,10 +24291,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>14.84410631175118</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="25">
@@ -24406,16 +24406,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24449,10 +24449,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>301.5956630564419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>365.1445902782788</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136.7341746849849</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24573,7 +24573,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24582,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>329.5048015845143</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,31 +24722,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>80.85147618046325</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>136.4277884031413</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,7 +24920,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>252.3448145279942</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24959,22 +24959,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.3313640301775</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>160.707747040916</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>196.3613553828675</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,10 +25093,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25160,22 +25160,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25242,13 +25242,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>75.70697120247274</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,16 +25281,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>52.90669720804152</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247591</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.8890915023667</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>99.83164826802533</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25527,7 +25527,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25646,7 +25646,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>184.8849328556481</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>26.51519937644244</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,13 +25828,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,13 +25919,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,19 +25992,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>40.85222436883541</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>51.52173503780682</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="E2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="F2" t="n">
         <v>116312.4707719327</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26442,13 +26442,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
+        <v>179.5324977039669</v>
+      </c>
+      <c r="L4" t="n">
+        <v>179.5324977039669</v>
+      </c>
+      <c r="M4" t="n">
         <v>179.5324977039668</v>
-      </c>
-      <c r="L4" t="n">
-        <v>179.5324977039668</v>
-      </c>
-      <c r="M4" t="n">
-        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12917.76202108069</v>
+        <v>-12917.76202108071</v>
       </c>
       <c r="C6" t="n">
+        <v>67851.66951046702</v>
+      </c>
+      <c r="D6" t="n">
         <v>67851.66951046707</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67851.66951046704</v>
       </c>
       <c r="E6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="F6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="G6" t="n">
         <v>101479.2695104671</v>
@@ -26543,10 +26543,10 @@
         <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>38419.32691136084</v>
+        <v>38419.3269113608</v>
       </c>
       <c r="K6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="L6" t="n">
         <v>101479.269510467</v>
@@ -26555,10 +26555,10 @@
         <v>101479.269510467</v>
       </c>
       <c r="N6" t="n">
+        <v>101479.2695104671</v>
+      </c>
+      <c r="O6" t="n">
         <v>101479.269510467</v>
-      </c>
-      <c r="O6" t="n">
-        <v>101479.2695104671</v>
       </c>
       <c r="P6" t="n">
         <v>101479.269510467</v>
@@ -26799,7 +26799,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26811,25 +26811,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35258,10 +35258,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798015</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798015</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798015</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.055561526184</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681934</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681934</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37628,16 +37628,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798015</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.014288877659</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M42" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036207</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
